--- a/RyR_Generator/3_Model/Modelo.xlsx
+++ b/RyR_Generator/3_Model/Modelo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EIITCAD\_LUCIANO\Generador RyR\5_Modelo Valeo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.galan\Desktop\Code\1_Repositories\Python_RyR\RyR_Generator\3_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652FCF6C-2574-440D-B938-700308CCAD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996A4546-6DB6-44CA-A937-699914940D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AERO" sheetId="1" r:id="rId1"/>
@@ -553,48 +553,48 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -689,7 +689,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1010,31 +1010,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AL27"/>
+  <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA20" sqref="AA20"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="31" width="11.42578125" customWidth="1"/>
-    <col min="32" max="32" width="12.7109375" customWidth="1"/>
-    <col min="33" max="33" width="12.140625" customWidth="1"/>
-    <col min="34" max="34" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="62.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="31" width="11.44140625" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" customWidth="1"/>
+    <col min="33" max="33" width="12.109375" customWidth="1"/>
+    <col min="34" max="34" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH4" t="e">
         <f>AVERAGE(B4:AE4)</f>
         <v>#DIV/0!</v>
@@ -1082,29 +1082,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH5" t="e">
-        <f t="shared" ref="AH5:AH26" si="0">AVERAGE(B5:AE5)</f>
+        <f t="shared" ref="AH5:AH31" si="0">AVERAGE(B5:AE5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI5" t="e">
-        <f t="shared" ref="AI5:AI27" si="1">STDEV(B5:AE5)</f>
+        <f t="shared" ref="AI5:AI31" si="1">STDEV(B5:AE5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ5" s="2" t="e">
-        <f t="shared" ref="AJ5:AJ27" si="2">(6*AI5)/(AG5-AF5)</f>
+        <f t="shared" ref="AJ5:AJ31" si="2">(6*AI5)/(AG5-AF5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK5">
-        <f t="shared" ref="AK4:AK27" si="3">MIN(B5:AE5)</f>
+        <f t="shared" ref="AK5:AK31" si="3">MIN(B5:AE5)</f>
         <v>0</v>
       </c>
       <c r="AL5">
-        <f t="shared" ref="AL4:AL27" si="4">MAX(B5:AE5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AL5:AL31" si="4">MAX(B5:AE5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH11" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH15" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH16" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="34:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="34:38" x14ac:dyDescent="0.3">
       <c r="AH17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="34:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="34:38" x14ac:dyDescent="0.3">
       <c r="AH18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="34:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="34:38" x14ac:dyDescent="0.3">
       <c r="AH19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="34:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="34:38" x14ac:dyDescent="0.3">
       <c r="AH20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="34:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="34:38" x14ac:dyDescent="0.3">
       <c r="AH21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="34:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="34:38" x14ac:dyDescent="0.3">
       <c r="AH22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="34:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="34:38" x14ac:dyDescent="0.3">
       <c r="AH23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="34:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="34:38" x14ac:dyDescent="0.3">
       <c r="AH24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="34:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="34:38" x14ac:dyDescent="0.3">
       <c r="AH25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="34:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="34:38" x14ac:dyDescent="0.3">
       <c r="AH26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1566,9 +1566,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="34:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="34:38" x14ac:dyDescent="0.3">
       <c r="AH27" t="e">
-        <f>AVERAGE(B27:AE27)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI27" t="e">
@@ -1588,8 +1588,96 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="34:38" x14ac:dyDescent="0.3">
+      <c r="AH28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ28" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="34:38" x14ac:dyDescent="0.3">
+      <c r="AH29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ29" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="34:38" x14ac:dyDescent="0.3">
+      <c r="AH30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ30" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="34:38" x14ac:dyDescent="0.3">
+      <c r="AH31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ31" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="AJ4:AJ27">
+  <conditionalFormatting sqref="AJ4:AJ31">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0.2</formula>
     </cfRule>

--- a/RyR_Generator/3_Model/Modelo.xlsx
+++ b/RyR_Generator/3_Model/Modelo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.galan\Desktop\Code\1_Repositories\Python_RyR\RyR_Generator\3_Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.galan\Desktop\Code\1_Repositories\Python_Eiit_RyR\RyR_Generator\3_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996A4546-6DB6-44CA-A937-699914940D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF56DD2-6C79-45E0-A7A0-4B28AB44266A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Test Name / Serial Number</t>
   </si>
@@ -54,6 +54,78 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB1_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB1_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB2_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB2_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB3_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB3_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB4_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB4_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB5_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB5_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB6_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB6_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB7_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB7_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB8_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB8_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB9_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB9_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB10_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB10_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB11_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB11_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB12_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB12_Y</t>
   </si>
 </sst>
 </file>
@@ -1013,8 +1085,8 @@
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH2" sqref="AH2"/>
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,534 +1133,2910 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AH4" t="e">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.31909999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.32329999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.32379999999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.32119999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.31680000000000003</v>
+      </c>
+      <c r="K4">
+        <v>0.31319999999999998</v>
+      </c>
+      <c r="L4">
+        <v>0.32040000000000002</v>
+      </c>
+      <c r="M4">
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="N4">
+        <v>0.32279999999999998</v>
+      </c>
+      <c r="O4">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="Q4">
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="R4">
+        <v>0.32329999999999998</v>
+      </c>
+      <c r="S4">
+        <v>0.32119999999999999</v>
+      </c>
+      <c r="T4">
+        <v>0.31919999999999998</v>
+      </c>
+      <c r="U4">
+        <v>0.3246</v>
+      </c>
+      <c r="V4">
+        <v>0.32279999999999998</v>
+      </c>
+      <c r="W4">
+        <v>0.3236</v>
+      </c>
+      <c r="X4">
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="Y4">
+        <v>0.32319999999999999</v>
+      </c>
+      <c r="Z4">
+        <v>0.31780000000000003</v>
+      </c>
+      <c r="AA4">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="AB4">
+        <v>0.32419999999999999</v>
+      </c>
+      <c r="AC4">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="AD4">
+        <v>0.3115</v>
+      </c>
+      <c r="AE4">
+        <v>0.3246</v>
+      </c>
+      <c r="AF4">
+        <v>0.31</v>
+      </c>
+      <c r="AG4">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AH4">
         <f>AVERAGE(B4:AE4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI4" t="e">
+        <v>0.3210933333333334</v>
+      </c>
+      <c r="AI4">
         <f>STDEV(B4:AE4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ4" s="2" t="e">
+        <v>3.7137148734009647E-3</v>
+      </c>
+      <c r="AJ4" s="2">
         <f>(6*AI4)/(AG4-AF4)</f>
-        <v>#DIV/0!</v>
+        <v>0.89129156961623079</v>
       </c>
       <c r="AK4">
         <f>MIN(B4:AE4)</f>
-        <v>0</v>
+        <v>0.3115</v>
       </c>
       <c r="AL4">
         <f>MAX(B4:AE4)</f>
-        <v>0</v>
+        <v>0.32469999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AH5" t="e">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="C5">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.3468</v>
+      </c>
+      <c r="E5">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.34670000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.3458</v>
+      </c>
+      <c r="I5">
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.34279999999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="L5">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="M5">
+        <v>0.34139999999999998</v>
+      </c>
+      <c r="N5">
+        <v>0.3458</v>
+      </c>
+      <c r="O5">
+        <v>0.3417</v>
+      </c>
+      <c r="P5">
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.3453</v>
+      </c>
+      <c r="R5">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="S5">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="T5">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="U5">
+        <v>0.3468</v>
+      </c>
+      <c r="V5">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="W5">
+        <v>0.3463</v>
+      </c>
+      <c r="X5">
+        <v>0.3453</v>
+      </c>
+      <c r="Y5">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="Z5">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="AA5">
+        <v>0.34670000000000001</v>
+      </c>
+      <c r="AB5">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="AC5">
+        <v>0.34620000000000001</v>
+      </c>
+      <c r="AD5">
+        <v>0.34</v>
+      </c>
+      <c r="AE5">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="AF5">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AG5">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AH5">
         <f t="shared" ref="AH5:AH31" si="0">AVERAGE(B5:AE5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI5" t="e">
+        <v>0.34495666666666669</v>
+      </c>
+      <c r="AI5">
         <f t="shared" ref="AI5:AI31" si="1">STDEV(B5:AE5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ5" s="2" t="e">
+        <v>1.9207906657439807E-3</v>
+      </c>
+      <c r="AJ5" s="2">
         <f t="shared" ref="AJ5:AJ31" si="2">(6*AI5)/(AG5-AF5)</f>
-        <v>#DIV/0!</v>
+        <v>0.34923466649890583</v>
       </c>
       <c r="AK5">
         <f t="shared" ref="AK5:AK31" si="3">MIN(B5:AE5)</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AL5">
         <f t="shared" ref="AL5:AL31" si="4">MAX(B5:AE5)</f>
-        <v>0</v>
+        <v>0.3468</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AH6" t="e">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="D6">
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.32340000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.32179999999999997</v>
+      </c>
+      <c r="G6">
+        <v>0.32169999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.32179999999999997</v>
+      </c>
+      <c r="I6">
+        <v>0.32169999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="K6">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="M6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="N6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="O6">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="Q6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="R6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="S6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="T6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="U6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="V6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="W6">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="X6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="Y6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="Z6">
+        <v>0.32090000000000002</v>
+      </c>
+      <c r="AA6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="AB6">
+        <v>0.32119999999999999</v>
+      </c>
+      <c r="AC6">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="AD6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="AE6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="AF6">
+        <v>0.31</v>
+      </c>
+      <c r="AG6">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AH6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI6" t="e">
+        <v>0.32146000000000002</v>
+      </c>
+      <c r="AI6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ6" s="2" t="e">
+        <v>4.6431261763660466E-4</v>
+      </c>
+      <c r="AJ6" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.11143502823278501</v>
       </c>
       <c r="AK6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.32090000000000002</v>
       </c>
       <c r="AL6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.32340000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AH7" t="e">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.3458</v>
+      </c>
+      <c r="E7">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.34539999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.3453</v>
+      </c>
+      <c r="H7">
+        <v>0.3453</v>
+      </c>
+      <c r="I7">
+        <v>0.34539999999999998</v>
+      </c>
+      <c r="J7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="K7">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="M7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="N7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="O7">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="Q7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="R7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="S7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="T7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="U7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="V7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="W7">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="X7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="Y7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="Z7">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="AA7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="AB7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="AC7">
+        <v>0.3448</v>
+      </c>
+      <c r="AD7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="AE7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="AF7">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AG7">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AH7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI7" t="e">
+        <v>0.3451966666666666</v>
+      </c>
+      <c r="AI7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ7" s="2" t="e">
+        <v>5.2816098207697688E-4</v>
+      </c>
+      <c r="AJ7" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>9.6029269468541331E-2</v>
       </c>
       <c r="AK7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.3448</v>
       </c>
       <c r="AL7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.34760000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AH8" t="e">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="C8">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="K8">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="L8">
+        <v>0.33090000000000003</v>
+      </c>
+      <c r="M8">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="N8">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="O8">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="Q8">
+        <v>0.33090000000000003</v>
+      </c>
+      <c r="R8">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="S8">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="T8">
+        <v>0.33189999999999997</v>
+      </c>
+      <c r="U8">
+        <v>0.33090000000000003</v>
+      </c>
+      <c r="V8">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="W8">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="X8">
+        <v>0.33090000000000003</v>
+      </c>
+      <c r="Y8">
+        <v>0.33090000000000003</v>
+      </c>
+      <c r="Z8">
+        <v>0.33079999999999998</v>
+      </c>
+      <c r="AA8">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="AB8">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="AC8">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="AD8">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="AE8">
+        <v>0.32950000000000002</v>
+      </c>
+      <c r="AF8">
+        <v>0.31</v>
+      </c>
+      <c r="AG8">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AH8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI8" t="e">
+        <v>0.33100666666666673</v>
+      </c>
+      <c r="AI8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ8" s="2" t="e">
+        <v>8.0384135222083769E-4</v>
+      </c>
+      <c r="AJ8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.19292192453300089</v>
       </c>
       <c r="AK8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.32819999999999999</v>
       </c>
       <c r="AL8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.33229999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AH9" t="e">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.35410000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.35389999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.35110000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.35360000000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.35370000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I9">
+        <v>0.3518</v>
+      </c>
+      <c r="J9">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.35370000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="N9">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="O9">
+        <v>0.35389999999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.35210000000000002</v>
+      </c>
+      <c r="Q9">
+        <v>0.35360000000000003</v>
+      </c>
+      <c r="R9">
+        <v>0.35320000000000001</v>
+      </c>
+      <c r="S9">
+        <v>0.35370000000000001</v>
+      </c>
+      <c r="T9">
+        <v>0.35360000000000003</v>
+      </c>
+      <c r="U9">
+        <v>0.35360000000000003</v>
+      </c>
+      <c r="V9">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="W9">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="X9">
+        <v>0.35360000000000003</v>
+      </c>
+      <c r="Y9">
+        <v>0.35370000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>0.35360000000000003</v>
+      </c>
+      <c r="AA9">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="AB9">
+        <v>0.35320000000000001</v>
+      </c>
+      <c r="AC9">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="AD9">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="AE9">
+        <v>0.35210000000000002</v>
+      </c>
+      <c r="AF9">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AH9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI9" t="e">
+        <v>0.35341333333333325</v>
+      </c>
+      <c r="AI9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ9" s="2" t="e">
+        <v>8.0031602953234968E-4</v>
+      </c>
+      <c r="AJ9" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.14551200536951822</v>
       </c>
       <c r="AK9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.35110000000000002</v>
       </c>
       <c r="AL9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.35410000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AH10" t="e">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.32440000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.32419999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.32429999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.3246</v>
+      </c>
+      <c r="G10">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.3246</v>
+      </c>
+      <c r="J10">
+        <v>0.3251</v>
+      </c>
+      <c r="K10">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="M10">
+        <v>0.32440000000000002</v>
+      </c>
+      <c r="N10">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="P10">
+        <v>0.3246</v>
+      </c>
+      <c r="Q10">
+        <v>0.32440000000000002</v>
+      </c>
+      <c r="R10">
+        <v>0.3246</v>
+      </c>
+      <c r="S10">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="T10">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="U10">
+        <v>0.3246</v>
+      </c>
+      <c r="V10">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="W10">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="X10">
+        <v>0.3246</v>
+      </c>
+      <c r="Y10">
+        <v>0.3246</v>
+      </c>
+      <c r="Z10">
+        <v>0.3246</v>
+      </c>
+      <c r="AA10">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="AB10">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="AC10">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="AD10">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AE10">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AF10">
+        <v>0.31</v>
+      </c>
+      <c r="AG10">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AH10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI10" t="e">
+        <v>0.32465333333333329</v>
+      </c>
+      <c r="AI10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ10" s="2" t="e">
+        <v>2.9093586606144167E-4</v>
+      </c>
+      <c r="AJ10" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.9824607854745938E-2</v>
       </c>
       <c r="AK10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.32369999999999999</v>
       </c>
       <c r="AL10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.3251</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AH11" t="e">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="I11">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.3473</v>
+      </c>
+      <c r="K11">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="M11">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="N11">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="P11">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="Q11">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="R11">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="S11">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="T11">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="U11">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="V11">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="W11">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="X11">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="Y11">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="Z11">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="AA11">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="AB11">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="AC11">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="AD11">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="AE11">
+        <v>0.3473</v>
+      </c>
+      <c r="AF11">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AG11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AH11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI11" t="e">
+        <v>0.34744333333333349</v>
+      </c>
+      <c r="AI11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ11" s="2" t="e">
+        <v>6.2606231557922376E-5</v>
+      </c>
+      <c r="AJ11" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.1382951192349533E-2</v>
       </c>
       <c r="AK11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.3473</v>
       </c>
       <c r="AL11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.34749999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AH12" t="e">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.32</v>
+      </c>
+      <c r="C12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="D12">
+        <v>0.3196</v>
+      </c>
+      <c r="E12">
+        <v>0.31969999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.31950000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.3196</v>
+      </c>
+      <c r="H12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="I12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="J12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="K12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="L12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="M12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="N12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="O12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="P12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="Q12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="R12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="S12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="T12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="U12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="V12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="W12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="X12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="Y12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="Z12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AA12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AB12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AC12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AD12">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AE12">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="AF12">
+        <v>0.31</v>
+      </c>
+      <c r="AG12">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AH12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI12" t="e">
+        <v>0.31934333333333342</v>
+      </c>
+      <c r="AI12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ12" s="2" t="e">
+        <v>2.0117471105439333E-4</v>
+      </c>
+      <c r="AJ12" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.8281930653054354E-2</v>
       </c>
       <c r="AK12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.31869999999999998</v>
       </c>
       <c r="AL12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AH13" t="e">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="C13">
+        <v>0.3453</v>
+      </c>
+      <c r="D13">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.3453</v>
+      </c>
+      <c r="G13">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.3453</v>
+      </c>
+      <c r="I13">
+        <v>0.3453</v>
+      </c>
+      <c r="J13">
+        <v>0.3453</v>
+      </c>
+      <c r="K13">
+        <v>0.3453</v>
+      </c>
+      <c r="L13">
+        <v>0.3453</v>
+      </c>
+      <c r="M13">
+        <v>0.3453</v>
+      </c>
+      <c r="N13">
+        <v>0.3453</v>
+      </c>
+      <c r="O13">
+        <v>0.3453</v>
+      </c>
+      <c r="P13">
+        <v>0.3453</v>
+      </c>
+      <c r="Q13">
+        <v>0.3453</v>
+      </c>
+      <c r="R13">
+        <v>0.3453</v>
+      </c>
+      <c r="S13">
+        <v>0.3453</v>
+      </c>
+      <c r="T13">
+        <v>0.3453</v>
+      </c>
+      <c r="U13">
+        <v>0.3453</v>
+      </c>
+      <c r="V13">
+        <v>0.3453</v>
+      </c>
+      <c r="W13">
+        <v>0.3453</v>
+      </c>
+      <c r="X13">
+        <v>0.3453</v>
+      </c>
+      <c r="Y13">
+        <v>0.3453</v>
+      </c>
+      <c r="Z13">
+        <v>0.3453</v>
+      </c>
+      <c r="AA13">
+        <v>0.3453</v>
+      </c>
+      <c r="AB13">
+        <v>0.3453</v>
+      </c>
+      <c r="AC13">
+        <v>0.3453</v>
+      </c>
+      <c r="AD13">
+        <v>0.3453</v>
+      </c>
+      <c r="AE13">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="AF13">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AG13">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AH13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" t="e">
+        <v>0.34524333333333329</v>
+      </c>
+      <c r="AI13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="2" t="e">
+        <v>2.9558047312356836E-4</v>
+      </c>
+      <c r="AJ13" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.37419042042852E-2</v>
       </c>
       <c r="AK13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.34370000000000001</v>
       </c>
       <c r="AL13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.34549999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AH14" t="e">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="J14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="K14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="L14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="M14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="P14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="Q14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="R14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="S14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="T14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="U14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="V14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="W14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="X14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="Y14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="Z14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="AA14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="AB14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="AC14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="AD14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="AE14">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="AF14">
+        <v>0.31</v>
+      </c>
+      <c r="AG14">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AH14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" t="e">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="AI14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AK14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.32619999999999999</v>
       </c>
       <c r="AL14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.32619999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AH15" t="e">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="F15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="G15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="H15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="I15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="J15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="K15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="L15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="M15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="N15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="O15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="P15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="Q15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="R15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="S15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="T15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="U15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="V15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="W15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="X15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="Y15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="Z15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="AA15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="AB15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="AC15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="AD15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="AE15">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="AF15">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AG15">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AH15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI15" t="e">
+        <v>0.34809999999999997</v>
+      </c>
+      <c r="AI15">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ15" s="2" t="e">
+        <v>5.6460128540837018E-17</v>
+      </c>
+      <c r="AJ15" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.026547791651583E-14</v>
       </c>
       <c r="AK15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.34810000000000002</v>
       </c>
       <c r="AL15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.34810000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AH16" t="e">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.3241</v>
+      </c>
+      <c r="C16">
+        <v>0.3241</v>
+      </c>
+      <c r="D16">
+        <v>0.3241</v>
+      </c>
+      <c r="E16">
+        <v>0.32419999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.32419999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.3241</v>
+      </c>
+      <c r="H16">
+        <v>0.32419999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.3241</v>
+      </c>
+      <c r="J16">
+        <v>0.3241</v>
+      </c>
+      <c r="K16">
+        <v>0.3241</v>
+      </c>
+      <c r="L16">
+        <v>0.3241</v>
+      </c>
+      <c r="M16">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.3241</v>
+      </c>
+      <c r="O16">
+        <v>0.3241</v>
+      </c>
+      <c r="P16">
+        <v>0.3241</v>
+      </c>
+      <c r="Q16">
+        <v>0.3241</v>
+      </c>
+      <c r="R16">
+        <v>0.3241</v>
+      </c>
+      <c r="S16">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="T16">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="U16">
+        <v>0.3241</v>
+      </c>
+      <c r="V16">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="W16">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="X16">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Y16">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Z16">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AA16">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AB16">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AC16">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AD16">
+        <v>0.3241</v>
+      </c>
+      <c r="AE16">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AF16">
+        <v>0.31</v>
+      </c>
+      <c r="AG16">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AH16">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI16" t="e">
+        <v>0.32406999999999986</v>
+      </c>
+      <c r="AI16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ16" s="2" t="e">
+        <v>6.5125872818288521E-5</v>
+      </c>
+      <c r="AJ16" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.5630209476389229E-2</v>
       </c>
       <c r="AK16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="AL16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.32419999999999999</v>
       </c>
     </row>
-    <row r="17" spans="34:38" x14ac:dyDescent="0.3">
-      <c r="AH17" t="e">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.3458</v>
+      </c>
+      <c r="F17">
+        <v>0.3458</v>
+      </c>
+      <c r="G17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.3458</v>
+      </c>
+      <c r="I17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="J17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="K17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="L17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="M17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="P17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="Q17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="R17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="S17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="T17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="U17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="V17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="W17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="X17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="Y17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="Z17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="AA17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="AB17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="AC17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="AD17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="AE17">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="AF17">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AG17">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AH17">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI17" t="e">
+        <v>0.34571000000000013</v>
+      </c>
+      <c r="AI17">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ17" s="2" t="e">
+        <v>3.0512857662933094E-5</v>
+      </c>
+      <c r="AJ17" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.5477923023514765E-3</v>
       </c>
       <c r="AK17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.34570000000000001</v>
       </c>
       <c r="AL17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.3458</v>
       </c>
     </row>
-    <row r="18" spans="34:38" x14ac:dyDescent="0.3">
-      <c r="AH18" t="e">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>0.3266</v>
+      </c>
+      <c r="C18">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="E18">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F18">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="G18">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="H18">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="J18">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="K18">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="L18">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="M18">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="N18">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="O18">
+        <v>0.3206</v>
+      </c>
+      <c r="P18">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="Q18">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="R18">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="S18">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="T18">
+        <v>0.3236</v>
+      </c>
+      <c r="U18">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="V18">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="W18">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="X18">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="Y18">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="Z18">
+        <v>0.3201</v>
+      </c>
+      <c r="AA18">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AB18">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="AC18">
+        <v>0.3206</v>
+      </c>
+      <c r="AD18">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AE18">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="AF18">
+        <v>0.31</v>
+      </c>
+      <c r="AG18">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AH18">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI18" t="e">
+        <v>0.32263333333333338</v>
+      </c>
+      <c r="AI18">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ18" s="2" t="e">
+        <v>3.9240490465258307E-3</v>
+      </c>
+      <c r="AJ18" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.94177177116619848</v>
       </c>
       <c r="AK18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.31929999999999997</v>
       </c>
       <c r="AL18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.33429999999999999</v>
       </c>
     </row>
-    <row r="19" spans="34:38" x14ac:dyDescent="0.3">
-      <c r="AH19" t="e">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0.34860000000000002</v>
+      </c>
+      <c r="C19">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.3473</v>
+      </c>
+      <c r="E19">
+        <v>0.3508</v>
+      </c>
+      <c r="F19">
+        <v>0.3473</v>
+      </c>
+      <c r="G19">
+        <v>0.3453</v>
+      </c>
+      <c r="H19">
+        <v>0.34970000000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="J19">
+        <v>0.3453</v>
+      </c>
+      <c r="K19">
+        <v>0.3473</v>
+      </c>
+      <c r="L19">
+        <v>0.34620000000000001</v>
+      </c>
+      <c r="M19">
+        <v>0.3453</v>
+      </c>
+      <c r="N19">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="O19">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="P19">
+        <v>0.3453</v>
+      </c>
+      <c r="Q19">
+        <v>0.3473</v>
+      </c>
+      <c r="R19">
+        <v>0.34620000000000001</v>
+      </c>
+      <c r="S19">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="T19">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="U19">
+        <v>0.3473</v>
+      </c>
+      <c r="V19">
+        <v>0.3453</v>
+      </c>
+      <c r="W19">
+        <v>0.34620000000000001</v>
+      </c>
+      <c r="X19">
+        <v>0.34620000000000001</v>
+      </c>
+      <c r="Y19">
+        <v>0.3453</v>
+      </c>
+      <c r="Z19">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="AA19">
+        <v>0.34620000000000001</v>
+      </c>
+      <c r="AB19">
+        <v>0.3453</v>
+      </c>
+      <c r="AC19">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="AD19">
+        <v>0.34620000000000001</v>
+      </c>
+      <c r="AE19">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="AF19">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AG19">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AH19">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI19" t="e">
+        <v>0.3469733333333333</v>
+      </c>
+      <c r="AI19">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ19" s="2" t="e">
+        <v>2.1760345670006277E-3</v>
+      </c>
+      <c r="AJ19" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.39564264854556902</v>
       </c>
       <c r="AK19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.3453</v>
       </c>
       <c r="AL19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.35339999999999999</v>
       </c>
     </row>
-    <row r="20" spans="34:38" x14ac:dyDescent="0.3">
-      <c r="AH20" t="e">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="C20">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="D20">
+        <v>0.32429999999999998</v>
+      </c>
+      <c r="E20">
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="F20">
+        <v>0.32169999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.31879999999999997</v>
+      </c>
+      <c r="H20">
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="I20">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="K20">
+        <v>0.31940000000000002</v>
+      </c>
+      <c r="L20">
+        <v>0.31890000000000002</v>
+      </c>
+      <c r="M20">
+        <v>0.31859999999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.31919999999999998</v>
+      </c>
+      <c r="O20">
+        <v>0.32179999999999997</v>
+      </c>
+      <c r="P20">
+        <v>0.31890000000000002</v>
+      </c>
+      <c r="Q20">
+        <v>0.3251</v>
+      </c>
+      <c r="R20">
+        <v>0.3241</v>
+      </c>
+      <c r="S20">
+        <v>0.31840000000000002</v>
+      </c>
+      <c r="T20">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="U20">
+        <v>0.31859999999999999</v>
+      </c>
+      <c r="V20">
+        <v>0.32029999999999997</v>
+      </c>
+      <c r="W20">
+        <v>0.3211</v>
+      </c>
+      <c r="X20">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="Y20">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="Z20">
+        <v>0.3226</v>
+      </c>
+      <c r="AA20">
+        <v>0.3231</v>
+      </c>
+      <c r="AB20">
+        <v>0.31969999999999998</v>
+      </c>
+      <c r="AC20">
+        <v>0.3206</v>
+      </c>
+      <c r="AD20">
+        <v>0.32050000000000001</v>
+      </c>
+      <c r="AE20">
+        <v>0.31859999999999999</v>
+      </c>
+      <c r="AF20">
+        <v>0.31</v>
+      </c>
+      <c r="AG20">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AH20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI20" t="e">
+        <v>0.32091666666666657</v>
+      </c>
+      <c r="AI20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ20" s="2" t="e">
+        <v>2.0202566128116476E-3</v>
+      </c>
+      <c r="AJ20" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.48486158707479499</v>
       </c>
       <c r="AK20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.31840000000000002</v>
       </c>
       <c r="AL20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.3251</v>
       </c>
     </row>
-    <row r="21" spans="34:38" x14ac:dyDescent="0.3">
-      <c r="AH21" t="e">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="C21">
+        <v>0.34870000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="E21">
+        <v>0.34670000000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.3458</v>
+      </c>
+      <c r="G21">
+        <v>0.34449999999999997</v>
+      </c>
+      <c r="H21">
+        <v>0.34539999999999998</v>
+      </c>
+      <c r="I21">
+        <v>0.3448</v>
+      </c>
+      <c r="J21">
+        <v>0.34770000000000001</v>
+      </c>
+      <c r="K21">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="L21">
+        <v>0.34439999999999998</v>
+      </c>
+      <c r="M21">
+        <v>0.34420000000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.34449999999999997</v>
+      </c>
+      <c r="O21">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="P21">
+        <v>0.34449999999999997</v>
+      </c>
+      <c r="Q21">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="R21">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="S21">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="T21">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="U21">
+        <v>0.34420000000000001</v>
+      </c>
+      <c r="V21">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="W21">
+        <v>0.34539999999999998</v>
+      </c>
+      <c r="X21">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="Y21">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="Z21">
+        <v>0.3463</v>
+      </c>
+      <c r="AA21">
+        <v>0.34649999999999997</v>
+      </c>
+      <c r="AB21">
+        <v>0.3458</v>
+      </c>
+      <c r="AC21">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="AD21">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="AE21">
+        <v>0.34439999999999998</v>
+      </c>
+      <c r="AF21">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AG21">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AH21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI21" t="e">
+        <v>0.34564333333333341</v>
+      </c>
+      <c r="AI21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ21" s="2" t="e">
+        <v>1.2119187788118416E-3</v>
+      </c>
+      <c r="AJ21" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.22034886887488048</v>
       </c>
       <c r="AK21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.34410000000000002</v>
       </c>
       <c r="AL21">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.34870000000000001</v>
       </c>
     </row>
-    <row r="22" spans="34:38" x14ac:dyDescent="0.3">
-      <c r="AH22" t="e">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="C22">
+        <v>0.32440000000000002</v>
+      </c>
+      <c r="D22">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="E22">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="G22">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="H22">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="I22">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="J22">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="K22">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="L22">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="M22">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="N22">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.32379999999999998</v>
+      </c>
+      <c r="P22">
+        <v>0.3241</v>
+      </c>
+      <c r="Q22">
+        <v>0.32419999999999999</v>
+      </c>
+      <c r="R22">
+        <v>0.3241</v>
+      </c>
+      <c r="S22">
+        <v>0.3241</v>
+      </c>
+      <c r="T22">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="U22">
+        <v>0.3241</v>
+      </c>
+      <c r="V22">
+        <v>0.32379999999999998</v>
+      </c>
+      <c r="W22">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="X22">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="Y22">
+        <v>0.32379999999999998</v>
+      </c>
+      <c r="Z22">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AA22">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="AB22">
+        <v>0.32379999999999998</v>
+      </c>
+      <c r="AC22">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AD22">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="AE22">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="AF22">
+        <v>0.31</v>
+      </c>
+      <c r="AG22">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AH22">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI22" t="e">
+        <v>0.32393666666666671</v>
+      </c>
+      <c r="AI22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ22" s="2" t="e">
+        <v>1.9384197853839717E-4</v>
+      </c>
+      <c r="AJ22" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.6522074849215278E-2</v>
       </c>
       <c r="AK22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.32369999999999999</v>
       </c>
       <c r="AL22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.32450000000000001</v>
       </c>
     </row>
-    <row r="23" spans="34:38" x14ac:dyDescent="0.3">
-      <c r="AH23" t="e">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>0.3458</v>
+      </c>
+      <c r="C23">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D23">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="F23">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="G23">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="H23">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="J23">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="K23">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="L23">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="M23">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="O23">
+        <v>0.3458</v>
+      </c>
+      <c r="P23">
+        <v>0.3458</v>
+      </c>
+      <c r="Q23">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="R23">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="S23">
+        <v>0.3458</v>
+      </c>
+      <c r="T23">
+        <v>0.3458</v>
+      </c>
+      <c r="U23">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="V23">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="W23">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="X23">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="Y23">
+        <v>0.3458</v>
+      </c>
+      <c r="Z23">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="AA23">
+        <v>0.3458</v>
+      </c>
+      <c r="AB23">
+        <v>0.3458</v>
+      </c>
+      <c r="AC23">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="AD23">
+        <v>0.3458</v>
+      </c>
+      <c r="AE23">
+        <v>0.34620000000000001</v>
+      </c>
+      <c r="AF23">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AG23">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AH23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI23" t="e">
+        <v>0.34585333333333335</v>
+      </c>
+      <c r="AI23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ23" s="2" t="e">
+        <v>1.2521246311585004E-4</v>
+      </c>
+      <c r="AJ23" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.2765902384700026E-2</v>
       </c>
       <c r="AK23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.34560000000000002</v>
       </c>
       <c r="AL23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.34620000000000001</v>
       </c>
     </row>
-    <row r="24" spans="34:38" x14ac:dyDescent="0.3">
-      <c r="AH24" t="e">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="D24">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.3221</v>
+      </c>
+      <c r="F24">
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="G24">
+        <v>0.32290000000000002</v>
+      </c>
+      <c r="H24">
+        <v>0.3221</v>
+      </c>
+      <c r="I24">
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="J24">
+        <v>0.3221</v>
+      </c>
+      <c r="K24">
+        <v>0.3221</v>
+      </c>
+      <c r="L24">
+        <v>0.3221</v>
+      </c>
+      <c r="M24">
+        <v>0.3221</v>
+      </c>
+      <c r="N24">
+        <v>0.3221</v>
+      </c>
+      <c r="O24">
+        <v>0.3221</v>
+      </c>
+      <c r="P24">
+        <v>0.3221</v>
+      </c>
+      <c r="Q24">
+        <v>0.3221</v>
+      </c>
+      <c r="R24">
+        <v>0.3221</v>
+      </c>
+      <c r="S24">
+        <v>0.3221</v>
+      </c>
+      <c r="T24">
+        <v>0.3221</v>
+      </c>
+      <c r="U24">
+        <v>0.3221</v>
+      </c>
+      <c r="V24">
+        <v>0.3221</v>
+      </c>
+      <c r="W24">
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="X24">
+        <v>0.3221</v>
+      </c>
+      <c r="Y24">
+        <v>0.3221</v>
+      </c>
+      <c r="Z24">
+        <v>0.3221</v>
+      </c>
+      <c r="AA24">
+        <v>0.3221</v>
+      </c>
+      <c r="AB24">
+        <v>0.3221</v>
+      </c>
+      <c r="AC24">
+        <v>0.3221</v>
+      </c>
+      <c r="AD24">
+        <v>0.3221</v>
+      </c>
+      <c r="AE24">
+        <v>0.31840000000000002</v>
+      </c>
+      <c r="AF24">
+        <v>0.31</v>
+      </c>
+      <c r="AG24">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AH24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI24" t="e">
+        <v>0.32218666666666673</v>
+      </c>
+      <c r="AI24">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ24" s="2" t="e">
+        <v>8.6172774856312952E-4</v>
+      </c>
+      <c r="AJ24" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.20681465965515089</v>
       </c>
       <c r="AK24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.31840000000000002</v>
       </c>
       <c r="AL24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.32390000000000002</v>
       </c>
     </row>
-    <row r="25" spans="34:38" x14ac:dyDescent="0.3">
-      <c r="AH25" t="e">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>0.34710000000000002</v>
+      </c>
+      <c r="C25">
+        <v>0.34710000000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.34710000000000002</v>
+      </c>
+      <c r="E25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="F25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="G25">
+        <v>0.3473</v>
+      </c>
+      <c r="H25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="I25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="J25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="K25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="L25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="M25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="N25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="O25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="P25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="Q25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="R25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="S25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="T25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="U25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="V25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="W25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="X25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="Y25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="Z25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="AA25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="AB25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="AC25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="AD25">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="AE25">
+        <v>0.34310000000000002</v>
+      </c>
+      <c r="AF25">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AG25">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AH25">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI25" t="e">
+        <v>0.34730666666666671</v>
+      </c>
+      <c r="AI25">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ25" s="2" t="e">
+        <v>8.0427021249865403E-4</v>
+      </c>
+      <c r="AJ25" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.1462309477270281</v>
       </c>
       <c r="AK25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.34310000000000002</v>
       </c>
       <c r="AL25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.34749999999999998</v>
       </c>
     </row>
-    <row r="26" spans="34:38" x14ac:dyDescent="0.3">
-      <c r="AH26" t="e">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.3332</v>
+      </c>
+      <c r="D26">
+        <v>0.3337</v>
+      </c>
+      <c r="E26">
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.33389999999999997</v>
+      </c>
+      <c r="G26">
+        <v>0.33389999999999997</v>
+      </c>
+      <c r="H26">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="I26">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="J26">
+        <v>0.33389999999999997</v>
+      </c>
+      <c r="K26">
+        <v>0.33410000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="M26">
+        <v>0.3332</v>
+      </c>
+      <c r="N26">
+        <v>0.33460000000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.3332</v>
+      </c>
+      <c r="P26">
+        <v>0.33339999999999997</v>
+      </c>
+      <c r="Q26">
+        <v>0.33339999999999997</v>
+      </c>
+      <c r="R26">
+        <v>0.3332</v>
+      </c>
+      <c r="S26">
+        <v>0.33339999999999997</v>
+      </c>
+      <c r="T26">
+        <v>0.33339999999999997</v>
+      </c>
+      <c r="U26">
+        <v>0.33339999999999997</v>
+      </c>
+      <c r="V26">
+        <v>0.3332</v>
+      </c>
+      <c r="W26">
+        <v>0.3332</v>
+      </c>
+      <c r="X26">
+        <v>0.3332</v>
+      </c>
+      <c r="Y26">
+        <v>0.3332</v>
+      </c>
+      <c r="Z26">
+        <v>0.3332</v>
+      </c>
+      <c r="AA26">
+        <v>0.3332</v>
+      </c>
+      <c r="AB26">
+        <v>0.3332</v>
+      </c>
+      <c r="AC26">
+        <v>0.3332</v>
+      </c>
+      <c r="AD26">
+        <v>0.3332</v>
+      </c>
+      <c r="AE26">
+        <v>0.3332</v>
+      </c>
+      <c r="AF26">
+        <v>0.31</v>
+      </c>
+      <c r="AG26">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AH26">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI26" t="e">
+        <v>0.33360666666666655</v>
+      </c>
+      <c r="AI26">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ26" s="2" t="e">
+        <v>5.1923905419594125E-4</v>
+      </c>
+      <c r="AJ26" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.12461737300702579</v>
       </c>
       <c r="AK26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.3332</v>
       </c>
       <c r="AL26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.33479999999999999</v>
       </c>
     </row>
-    <row r="27" spans="34:38" x14ac:dyDescent="0.3">
-      <c r="AH27" t="e">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C27">
+        <v>0.3533</v>
+      </c>
+      <c r="D27">
+        <v>0.35349999999999998</v>
+      </c>
+      <c r="E27">
+        <v>0.35410000000000003</v>
+      </c>
+      <c r="F27">
+        <v>0.35370000000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.35370000000000001</v>
+      </c>
+      <c r="H27">
+        <v>0.35389999999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.35389999999999999</v>
+      </c>
+      <c r="J27">
+        <v>0.35370000000000001</v>
+      </c>
+      <c r="K27">
+        <v>0.3538</v>
+      </c>
+      <c r="L27">
+        <v>0.35389999999999999</v>
+      </c>
+      <c r="M27">
+        <v>0.3533</v>
+      </c>
+      <c r="N27">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="O27">
+        <v>0.3533</v>
+      </c>
+      <c r="P27">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="Q27">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="R27">
+        <v>0.3533</v>
+      </c>
+      <c r="S27">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="T27">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="U27">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="V27">
+        <v>0.3533</v>
+      </c>
+      <c r="W27">
+        <v>0.3533</v>
+      </c>
+      <c r="X27">
+        <v>0.3533</v>
+      </c>
+      <c r="Y27">
+        <v>0.3533</v>
+      </c>
+      <c r="Z27">
+        <v>0.3533</v>
+      </c>
+      <c r="AA27">
+        <v>0.3533</v>
+      </c>
+      <c r="AB27">
+        <v>0.3533</v>
+      </c>
+      <c r="AC27">
+        <v>0.3533</v>
+      </c>
+      <c r="AD27">
+        <v>0.3533</v>
+      </c>
+      <c r="AE27">
+        <v>0.3533</v>
+      </c>
+      <c r="AF27">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AG27">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AH27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI27" t="e">
+        <v>0.35351333333333351</v>
+      </c>
+      <c r="AI27">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ27" s="2" t="e">
+        <v>2.7257815498442307E-4</v>
+      </c>
+      <c r="AJ27" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.9559664542622416E-2</v>
       </c>
       <c r="AK27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.3533</v>
       </c>
       <c r="AL27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.35410000000000003</v>
       </c>
     </row>
-    <row r="28" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1610,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH29" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1632,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1654,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AH31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
